--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H2">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I2">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J2">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>33.63225567398775</v>
+        <v>176.7484149683865</v>
       </c>
       <c r="R2">
-        <v>134.529022695951</v>
+        <v>706.993659873546</v>
       </c>
       <c r="S2">
-        <v>0.0006063219672831638</v>
+        <v>0.0009514233586995987</v>
       </c>
       <c r="T2">
-        <v>0.0003277516056202961</v>
+        <v>0.0004845982638826936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H3">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I3">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J3">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>8.041275799168499</v>
+        <v>27.146228782757</v>
       </c>
       <c r="R3">
-        <v>48.24765479501099</v>
+        <v>162.877372696542</v>
       </c>
       <c r="S3">
-        <v>0.0001449680392917946</v>
+        <v>0.0001461260977595637</v>
       </c>
       <c r="T3">
-        <v>0.0001175452404959348</v>
+        <v>0.0001116418668431005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H4">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I4">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J4">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>1.516419572922</v>
+        <v>11.45799893252667</v>
       </c>
       <c r="R4">
-        <v>9.098517437531999</v>
+        <v>68.74799359516</v>
       </c>
       <c r="S4">
-        <v>2.733799682047151E-05</v>
+        <v>6.167754223035483E-05</v>
       </c>
       <c r="T4">
-        <v>2.216661980556503E-05</v>
+        <v>4.712228727424781E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H5">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I5">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J5">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>3.7064984411025</v>
+        <v>16.7597523098765</v>
       </c>
       <c r="R5">
-        <v>14.82599376441</v>
+        <v>67.039009239506</v>
       </c>
       <c r="S5">
-        <v>6.682071664552089E-05</v>
+        <v>9.021647994120976E-05</v>
       </c>
       <c r="T5">
-        <v>3.612040854696647E-05</v>
+        <v>4.595088942620948E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H6">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I6">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J6">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>24.246568496343</v>
+        <v>309.1218841250697</v>
       </c>
       <c r="R6">
-        <v>145.479410978058</v>
+        <v>1854.731304750418</v>
       </c>
       <c r="S6">
-        <v>0.0004371168931716663</v>
+        <v>0.001663979738061166</v>
       </c>
       <c r="T6">
-        <v>0.0003544299183717219</v>
+        <v>0.00127129792141516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0587955</v>
+        <v>20.453651</v>
       </c>
       <c r="H7">
-        <v>12.117591</v>
+        <v>40.907302</v>
       </c>
       <c r="I7">
-        <v>0.00132156215963526</v>
+        <v>0.002931177245748417</v>
       </c>
       <c r="J7">
-        <v>0.0008896335791751394</v>
+        <v>0.001974175492708352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>2.16311116941</v>
+        <v>3.298212584703</v>
       </c>
       <c r="R7">
-        <v>12.97866701646</v>
+        <v>19.789275508218</v>
       </c>
       <c r="S7">
-        <v>3.899654642264284E-05</v>
+        <v>1.775402905652467E-05</v>
       </c>
       <c r="T7">
-        <v>3.161978633465514E-05</v>
+        <v>1.356426386694049E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J8">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>176.4084098808157</v>
+        <v>274.621332544907</v>
       </c>
       <c r="R8">
-        <v>1058.450459284894</v>
+        <v>1647.727995269442</v>
       </c>
       <c r="S8">
-        <v>0.003180289040409423</v>
+        <v>0.001478265876540777</v>
       </c>
       <c r="T8">
-        <v>0.002578691426936271</v>
+        <v>0.001129410589058608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J9">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>42.17821994739266</v>
@@ -1013,10 +1013,10 @@
         <v>379.603979526534</v>
       </c>
       <c r="S9">
-        <v>0.0007603885253163236</v>
+        <v>0.000227042170044333</v>
       </c>
       <c r="T9">
-        <v>0.000924825077120107</v>
+        <v>0.0002601938884068953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J10">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>7.953946597112001</v>
+        <v>17.80276748570222</v>
       </c>
       <c r="R10">
-        <v>71.585519374008</v>
+        <v>160.22490737132</v>
       </c>
       <c r="S10">
-        <v>0.0001433936693147872</v>
+        <v>9.5830951799055E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001744030280144159</v>
+        <v>0.0001098237740304414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J11">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>19.44138099325667</v>
+        <v>26.04032128539367</v>
       </c>
       <c r="R11">
-        <v>116.64828595954</v>
+        <v>156.241927712362</v>
       </c>
       <c r="S11">
-        <v>0.0003504890211586344</v>
+        <v>0.0001401730812884362</v>
       </c>
       <c r="T11">
-        <v>0.0002841889597496151</v>
+        <v>0.0001070937000038139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J12">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>127.1784632873836</v>
+        <v>480.2954739503763</v>
       </c>
       <c r="R12">
-        <v>1144.606169586452</v>
+        <v>4322.659265553387</v>
       </c>
       <c r="S12">
-        <v>0.002292772057988849</v>
+        <v>0.002585394234374413</v>
       </c>
       <c r="T12">
-        <v>0.002788591653807856</v>
+        <v>0.002962902348824856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.0069318775820388</v>
+        <v>0.004554291484292619</v>
       </c>
       <c r="J13">
-        <v>0.006999479009086203</v>
+        <v>0.004601037338145601</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>11.34598301969334</v>
+        <v>5.124569491554</v>
       </c>
       <c r="R13">
-        <v>102.11384717724</v>
+        <v>46.12112542398601</v>
       </c>
       <c r="S13">
-        <v>0.0002045452678507828</v>
+        <v>2.758517024560512E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002487788634579389</v>
+        <v>3.16130378209858E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H14">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I14">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J14">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>18620.52986177748</v>
+        <v>7928.525641846711</v>
       </c>
       <c r="R14">
-        <v>111723.1791706649</v>
+        <v>47571.15385108026</v>
       </c>
       <c r="S14">
-        <v>0.3356907252099623</v>
+        <v>0.04267865427280301</v>
       </c>
       <c r="T14">
-        <v>0.2721899752512773</v>
+        <v>0.03260693818846026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H15">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I15">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J15">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>4452.059879558232</v>
+        <v>1217.71712081278</v>
       </c>
       <c r="R15">
-        <v>40068.53891602409</v>
+        <v>10959.45408731502</v>
       </c>
       <c r="S15">
-        <v>0.08026169076503482</v>
+        <v>0.006554879223312542</v>
       </c>
       <c r="T15">
-        <v>0.09761854878160406</v>
+        <v>0.007511994414157648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H16">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I16">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J16">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>839.567117183192</v>
+        <v>513.9793664177333</v>
       </c>
       <c r="R16">
-        <v>7556.104054648727</v>
+        <v>4625.8142977596</v>
       </c>
       <c r="S16">
-        <v>0.01513570755084623</v>
+        <v>0.002766712081615651</v>
       </c>
       <c r="T16">
-        <v>0.01840885473272443</v>
+        <v>0.003170695446036944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H17">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I17">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J17">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>2052.106334293857</v>
+        <v>751.80377693131</v>
       </c>
       <c r="R17">
-        <v>12312.63800576314</v>
+        <v>4510.82266158786</v>
       </c>
       <c r="S17">
-        <v>0.03699535237077855</v>
+        <v>0.00404690290806267</v>
       </c>
       <c r="T17">
-        <v>0.02999714704633626</v>
+        <v>0.003091876143386022</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H18">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I18">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J18">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>13424.13536303424</v>
+        <v>13866.49371186695</v>
       </c>
       <c r="R18">
-        <v>120817.2182673081</v>
+        <v>124798.4434068026</v>
       </c>
       <c r="S18">
-        <v>0.2420101774108966</v>
+        <v>0.0746422875876484</v>
       </c>
       <c r="T18">
-        <v>0.2943456845232833</v>
+        <v>0.0855412324645403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3354.457804666667</v>
+        <v>917.50354</v>
       </c>
       <c r="H19">
-        <v>10063.373414</v>
+        <v>2752.51062</v>
       </c>
       <c r="I19">
-        <v>0.7316841277677442</v>
+        <v>0.131485840808647</v>
       </c>
       <c r="J19">
-        <v>0.7388196968252817</v>
+        <v>0.1328354289760658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>1197.608525422093</v>
+        <v>147.95019833562</v>
       </c>
       <c r="R19">
-        <v>10778.47672879884</v>
+        <v>1331.55178502058</v>
       </c>
       <c r="S19">
-        <v>0.02159047446022568</v>
+        <v>0.0007964047352046949</v>
       </c>
       <c r="T19">
-        <v>0.0262594864900564</v>
+        <v>0.0009126923194845743</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H20">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I20">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J20">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>703.7281340934326</v>
+        <v>1661.152276809991</v>
       </c>
       <c r="R20">
-        <v>2814.91253637373</v>
+        <v>6644.609107239963</v>
       </c>
       <c r="S20">
-        <v>0.01268680372889923</v>
+        <v>0.008941857152137576</v>
       </c>
       <c r="T20">
-        <v>0.006857941022602537</v>
+        <v>0.004554448250813945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H21">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I21">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J21">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>168.257284576255</v>
+        <v>255.1311125327335</v>
       </c>
       <c r="R21">
-        <v>1009.54370745753</v>
+        <v>1530.786675196401</v>
       </c>
       <c r="S21">
-        <v>0.003033340635338416</v>
+        <v>0.001373351495333494</v>
       </c>
       <c r="T21">
-        <v>0.002459540435456018</v>
+        <v>0.001049254904644575</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H22">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I22">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J22">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>31.72987048206</v>
+        <v>107.6868554541633</v>
       </c>
       <c r="R22">
-        <v>190.37922289236</v>
+        <v>646.12113272498</v>
       </c>
       <c r="S22">
-        <v>0.0005720257861622492</v>
+        <v>0.0005796702036752277</v>
       </c>
       <c r="T22">
-        <v>0.0004638188454006603</v>
+        <v>0.0004428740976721743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H23">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I23">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J23">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>77.555524591075</v>
+        <v>157.5148536030858</v>
       </c>
       <c r="R23">
-        <v>310.2220983643</v>
+        <v>630.059414412343</v>
       </c>
       <c r="S23">
-        <v>0.001398170217887227</v>
+        <v>0.0008478905515895475</v>
       </c>
       <c r="T23">
-        <v>0.0007557907490905823</v>
+        <v>0.000431864832312328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H24">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I24">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J24">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>507.3401133572234</v>
+        <v>2905.25106953858</v>
       </c>
       <c r="R24">
-        <v>3044.04068014334</v>
+        <v>17431.50641723148</v>
       </c>
       <c r="S24">
-        <v>0.009146322464785835</v>
+        <v>0.01563874692138197</v>
       </c>
       <c r="T24">
-        <v>0.007416163445603519</v>
+        <v>0.01194816619453321</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>126.775465</v>
+        <v>192.2315905</v>
       </c>
       <c r="H25">
-        <v>253.55093</v>
+        <v>384.463181</v>
       </c>
       <c r="I25">
-        <v>0.02765263447399146</v>
+        <v>0.02754837578814793</v>
       </c>
       <c r="J25">
-        <v>0.01861487331591611</v>
+        <v>0.01855409065547504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>45.2613765143</v>
+        <v>30.9979206628965</v>
       </c>
       <c r="R25">
-        <v>271.5682590858</v>
+        <v>185.987523977379</v>
       </c>
       <c r="S25">
-        <v>0.0008159716409185015</v>
+        <v>0.0001668594640301114</v>
       </c>
       <c r="T25">
-        <v>0.0006616188177627966</v>
+        <v>0.0001274823754988119</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H26">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I26">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J26">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>51.587937359101</v>
+        <v>6480.264842222432</v>
       </c>
       <c r="R26">
-        <v>309.527624154606</v>
+        <v>38881.5890533346</v>
       </c>
       <c r="S26">
-        <v>0.0009300268162460132</v>
+        <v>0.03488277585150033</v>
       </c>
       <c r="T26">
-        <v>0.0007540988090710407</v>
+        <v>0.0266508055469923</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H27">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I27">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J27">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>12.334374364774</v>
+        <v>995.2833354193937</v>
       </c>
       <c r="R27">
-        <v>111.009369282966</v>
+        <v>8957.550018774544</v>
       </c>
       <c r="S27">
-        <v>0.0002223639770864664</v>
+        <v>0.005357534968626617</v>
       </c>
       <c r="T27">
-        <v>0.0002704509279281602</v>
+        <v>0.006139819115940783</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H28">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I28">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J28">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>2.326009848888</v>
+        <v>420.0935417607866</v>
       </c>
       <c r="R28">
-        <v>20.934088639992</v>
+        <v>3780.841875847079</v>
       </c>
       <c r="S28">
-        <v>4.193328217912442E-05</v>
+        <v>0.002261331783606356</v>
       </c>
       <c r="T28">
-        <v>5.10014941494218E-05</v>
+        <v>0.002591521696783236</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H29">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I29">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J29">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>5.68533408091</v>
+        <v>614.4758564170129</v>
       </c>
       <c r="R29">
-        <v>34.11200448546</v>
+        <v>3686.855138502078</v>
       </c>
       <c r="S29">
-        <v>0.0001024951456724771</v>
+        <v>0.003307677091512555</v>
       </c>
       <c r="T29">
-        <v>8.310670825510097E-05</v>
+        <v>0.002527099888879706</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H30">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I30">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J30">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>37.19139355050534</v>
+        <v>11333.57647374399</v>
       </c>
       <c r="R30">
-        <v>334.722541954548</v>
+        <v>102002.1882636959</v>
       </c>
       <c r="S30">
-        <v>0.000670486069151336</v>
+        <v>0.06100778553887985</v>
       </c>
       <c r="T30">
-        <v>0.000815480915302984</v>
+        <v>0.06991587923668773</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.293481999999999</v>
+        <v>749.9081419999999</v>
       </c>
       <c r="H31">
-        <v>27.880446</v>
+        <v>2249.724426</v>
       </c>
       <c r="I31">
-        <v>0.002027121420825544</v>
+        <v>0.1074680350335435</v>
       </c>
       <c r="J31">
-        <v>0.002046890422690384</v>
+        <v>0.108571101246339</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>3.31795894364</v>
+        <v>120.924937621926</v>
       </c>
       <c r="R31">
-        <v>29.86163049276</v>
+        <v>1088.324438597334</v>
       </c>
       <c r="S31">
-        <v>5.981613049012722E-05</v>
+        <v>0.0006509297994178361</v>
       </c>
       <c r="T31">
-        <v>7.275156798367684E-05</v>
+        <v>0.0007459757610552079</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H32">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I32">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J32">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N32">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O32">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P32">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q32">
-        <v>5862.977405667285</v>
+        <v>43778.15086413296</v>
       </c>
       <c r="R32">
-        <v>35177.86443400371</v>
+        <v>262668.9051847977</v>
       </c>
       <c r="S32">
-        <v>0.1056976977458685</v>
+        <v>0.2356544772424747</v>
       </c>
       <c r="T32">
-        <v>0.08570345134072573</v>
+        <v>0.1800424850362702</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H33">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I33">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J33">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.981621</v>
       </c>
       <c r="O33">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P33">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q33">
-        <v>1401.803636968903</v>
+        <v>6723.747419496606</v>
       </c>
       <c r="R33">
-        <v>12616.23273272013</v>
+        <v>60513.72677546945</v>
       </c>
       <c r="S33">
-        <v>0.02527170187901054</v>
+        <v>0.03619342416196163</v>
       </c>
       <c r="T33">
-        <v>0.03073679160201622</v>
+        <v>0.04147823184398748</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H34">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I34">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J34">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N34">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O34">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P34">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q34">
-        <v>264.351394677036</v>
+        <v>2837.988708181318</v>
       </c>
       <c r="R34">
-        <v>2379.162552093324</v>
+        <v>25541.89837363186</v>
       </c>
       <c r="S34">
-        <v>0.004765724286480011</v>
+        <v>0.01527667871404875</v>
       </c>
       <c r="T34">
-        <v>0.005796328040252222</v>
+        <v>0.01750731344655066</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H35">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I35">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J35">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N35">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O35">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P35">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q35">
-        <v>646.139135744395</v>
+        <v>4151.160083661892</v>
       </c>
       <c r="R35">
-        <v>3876.83481446637</v>
+        <v>24906.96050197135</v>
       </c>
       <c r="S35">
-        <v>0.0116485898454379</v>
+        <v>0.02234538097557322</v>
       </c>
       <c r="T35">
-        <v>0.009445090804218402</v>
+        <v>0.01707210474844849</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H36">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I36">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J36">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N36">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O36">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P36">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q36">
-        <v>4226.807878633368</v>
+        <v>76565.23811572976</v>
       </c>
       <c r="R36">
-        <v>38041.27090770031</v>
+        <v>689087.1430415678</v>
       </c>
       <c r="S36">
-        <v>0.0762008499561662</v>
+        <v>0.412144889789996</v>
       </c>
       <c r="T36">
-        <v>0.09267953761928796</v>
+        <v>0.4723245088811072</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1056.205729</v>
+        <v>5066.087972333334</v>
       </c>
       <c r="H37">
-        <v>3168.617187</v>
+        <v>15198.263917</v>
       </c>
       <c r="I37">
-        <v>0.2303826765957647</v>
+        <v>0.7260122796396206</v>
       </c>
       <c r="J37">
-        <v>0.2326294268478505</v>
+        <v>0.7334641662912662</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N37">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O37">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P37">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q37">
-        <v>377.0865693675801</v>
+        <v>816.9218838026671</v>
       </c>
       <c r="R37">
-        <v>3393.77912430822</v>
+        <v>7352.296954224003</v>
       </c>
       <c r="S37">
-        <v>0.006798112882801512</v>
+        <v>0.004397428755566238</v>
       </c>
       <c r="T37">
-        <v>0.00826822744135002</v>
+        <v>0.005039522334902177</v>
       </c>
     </row>
   </sheetData>
